--- a/RaceWebScraper/data/OCRSeries/1 - Unbroken-Torrevieja-2024.xlsx
+++ b/RaceWebScraper/data/OCRSeries/1 - Unbroken-Torrevieja-2024.xlsx
@@ -19,8 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[HH]:MM:SS.000"/>
+    <numFmt numFmtId="165" formatCode="#.#"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -54,10 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -503,7 +505,7 @@
       <c r="F2" s="2" t="n">
         <v>0.02940543981481481</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -536,7 +538,7 @@
       <c r="F3" s="2" t="n">
         <v>0.02959849537037037</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>92</v>
       </c>
     </row>
@@ -569,7 +571,7 @@
       <c r="F4" s="2" t="n">
         <v>0.02980092592592593</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>86</v>
       </c>
     </row>
@@ -602,7 +604,7 @@
       <c r="F5" s="2" t="n">
         <v>0.030515625</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>82</v>
       </c>
     </row>
@@ -635,7 +637,7 @@
       <c r="F6" s="2" t="n">
         <v>0.0309193287037037</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>80</v>
       </c>
     </row>
@@ -668,7 +670,7 @@
       <c r="F7" s="2" t="n">
         <v>0.03136041666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>79</v>
       </c>
     </row>
@@ -701,7 +703,7 @@
       <c r="F8" s="2" t="n">
         <v>0.03139224537037037</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>78</v>
       </c>
     </row>
@@ -734,7 +736,7 @@
       <c r="F9" s="2" t="n">
         <v>0.03198229166666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>77</v>
       </c>
     </row>
@@ -767,7 +769,7 @@
       <c r="F10" s="2" t="n">
         <v>0.03210960648148148</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>76</v>
       </c>
     </row>
@@ -800,7 +802,7 @@
       <c r="F11" s="2" t="n">
         <v>0.03231782407407408</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="3" t="n">
         <v>75</v>
       </c>
     </row>
@@ -833,7 +835,7 @@
       <c r="F12" s="2" t="n">
         <v>0.03265243055555556</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="3" t="n">
         <v>74</v>
       </c>
     </row>
@@ -866,7 +868,7 @@
       <c r="F13" s="2" t="n">
         <v>0.03280393518518519</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="3" t="n">
         <v>73</v>
       </c>
     </row>
@@ -899,7 +901,7 @@
       <c r="F14" s="2" t="n">
         <v>0.0329412037037037</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="3" t="n">
         <v>72</v>
       </c>
     </row>
@@ -932,7 +934,7 @@
       <c r="F15" s="2" t="n">
         <v>0.033165625</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="3" t="n">
         <v>71</v>
       </c>
     </row>
@@ -965,7 +967,7 @@
       <c r="F16" s="2" t="n">
         <v>0.03365162037037037</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="3" t="n">
         <v>70</v>
       </c>
     </row>
@@ -998,7 +1000,7 @@
       <c r="F17" s="2" t="n">
         <v>0.03404212962962963</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="3" t="n">
         <v>69</v>
       </c>
     </row>
@@ -1031,7 +1033,7 @@
       <c r="F18" s="2" t="n">
         <v>0.03408553240740741</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="3" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1064,7 +1066,7 @@
       <c r="F19" s="2" t="n">
         <v>0.03411736111111111</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="3" t="n">
         <v>67</v>
       </c>
     </row>
@@ -1097,7 +1099,7 @@
       <c r="F20" s="2" t="n">
         <v>0.03422777777777778</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="3" t="n">
         <v>66</v>
       </c>
     </row>
@@ -1130,7 +1132,7 @@
       <c r="F21" s="2" t="n">
         <v>0.03454849537037036</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="3" t="n">
         <v>65</v>
       </c>
     </row>
@@ -1163,7 +1165,7 @@
       <c r="F22" s="2" t="n">
         <v>0.03466134259259259</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="3" t="n">
         <v>64</v>
       </c>
     </row>
@@ -1196,7 +1198,7 @@
       <c r="F23" s="2" t="n">
         <v>0.03513333333333334</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="3" t="n">
         <v>63</v>
       </c>
     </row>
@@ -1229,7 +1231,7 @@
       <c r="F24" s="2" t="n">
         <v>0.03531226851851852</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="3" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1262,7 +1264,7 @@
       <c r="F25" s="2" t="n">
         <v>0.03543078703703703</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="3" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1295,7 +1297,7 @@
       <c r="F26" s="2" t="n">
         <v>0.03554363425925926</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="3" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1328,7 +1330,7 @@
       <c r="F27" s="2" t="n">
         <v>0.03563645833333333</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="3" t="n">
         <v>59</v>
       </c>
     </row>
@@ -1361,7 +1363,7 @@
       <c r="F28" s="2" t="n">
         <v>0.0359574074074074</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="3" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1394,7 +1396,7 @@
       <c r="F29" s="2" t="n">
         <v>0.03615983796296297</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="3" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1427,7 +1429,7 @@
       <c r="F30" s="2" t="n">
         <v>0.03687453703703704</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="3" t="n">
         <v>56</v>
       </c>
     </row>
@@ -1460,7 +1462,7 @@
       <c r="F31" s="2" t="n">
         <v>0.03717835648148148</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="3" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1493,7 +1495,7 @@
       <c r="F32" s="2" t="n">
         <v>0.03763252314814815</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="3" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1526,7 +1528,7 @@
       <c r="F33" s="2" t="n">
         <v>0.03775405092592592</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="3" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1559,7 +1561,7 @@
       <c r="F34" s="2" t="n">
         <v>0.03782627314814815</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="3" t="n">
         <v>52</v>
       </c>
     </row>
@@ -1592,7 +1594,7 @@
       <c r="F35" s="2" t="n">
         <v>0.037925</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="3" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1625,7 +1627,7 @@
       <c r="F36" s="2" t="n">
         <v>0.03798541666666667</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="3" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1658,7 +1660,7 @@
       <c r="F37" s="2" t="n">
         <v>0.03820520833333333</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="3" t="n">
         <v>49</v>
       </c>
     </row>
@@ -1691,7 +1693,7 @@
       <c r="F38" s="2" t="n">
         <v>0.03843680555555556</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="3" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1724,7 +1726,7 @@
       <c r="F39" s="2" t="n">
         <v>0.03959965277777778</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="3" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1757,7 +1759,7 @@
       <c r="F40" s="2" t="n">
         <v>0.04008576388888889</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="3" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1790,7 +1792,7 @@
       <c r="F41" s="2" t="n">
         <v>0.04280231481481481</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="3" t="n">
         <v>45</v>
       </c>
     </row>
@@ -1823,7 +1825,7 @@
       <c r="F42" s="2" t="n">
         <v>0.04425752314814815</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="3" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1856,7 +1858,7 @@
       <c r="F43" s="2" t="n">
         <v>0.04786504629629629</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="3" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1889,7 +1891,7 @@
       <c r="F44" s="2" t="n">
         <v>0.05085798611111111</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="3" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1922,7 +1924,7 @@
       <c r="F45" s="2" t="n">
         <v>0.05908773148148148</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="3" t="n">
         <v>41</v>
       </c>
     </row>
@@ -1953,7 +1955,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1984,7 +1986,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2015,7 +2017,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2048,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2077,7 +2079,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2108,7 +2110,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2139,7 +2141,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2170,7 +2172,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2265,7 +2267,7 @@
       <c r="F2" s="2" t="n">
         <v>0.03582546296296296</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2298,7 +2300,7 @@
       <c r="F3" s="2" t="n">
         <v>0.03615509259259259</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>92</v>
       </c>
     </row>
@@ -2331,7 +2333,7 @@
       <c r="F4" s="2" t="n">
         <v>0.03938958333333334</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>86</v>
       </c>
     </row>
@@ -2364,7 +2366,7 @@
       <c r="F5" s="2" t="n">
         <v>0.04217002314814815</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>82</v>
       </c>
     </row>
@@ -2397,7 +2399,7 @@
       <c r="F6" s="2" t="n">
         <v>0.04227997685185185</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2430,7 +2432,7 @@
       <c r="F7" s="2" t="n">
         <v>0.04424976851851851</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>79</v>
       </c>
     </row>
@@ -2463,7 +2465,7 @@
       <c r="F8" s="2" t="n">
         <v>0.04558356481481481</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>78</v>
       </c>
     </row>
@@ -2496,7 +2498,7 @@
       <c r="F9" s="2" t="n">
         <v>0.04624016203703704</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>77</v>
       </c>
     </row>
@@ -2529,7 +2531,7 @@
       <c r="F10" s="2" t="n">
         <v>0.04673796296296296</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>76</v>
       </c>
     </row>
@@ -2562,7 +2564,7 @@
       <c r="F11" s="2" t="n">
         <v>0.04767268518518519</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="3" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2595,7 +2597,7 @@
       <c r="F12" s="2" t="n">
         <v>0.04848518518518519</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="3" t="n">
         <v>74</v>
       </c>
     </row>
@@ -2628,7 +2630,7 @@
       <c r="F13" s="2" t="n">
         <v>0.05151423611111111</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="3" t="n">
         <v>73</v>
       </c>
     </row>
@@ -2661,7 +2663,7 @@
       <c r="F14" s="2" t="n">
         <v>0.05316319444444444</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="3" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2694,7 +2696,7 @@
       <c r="F15" s="2" t="n">
         <v>0.05567731481481482</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="3" t="n">
         <v>71</v>
       </c>
     </row>
@@ -2727,7 +2729,7 @@
       <c r="F16" s="2" t="n">
         <v>0.05611412037037037</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="3" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2760,7 +2762,7 @@
       <c r="F17" s="2" t="n">
         <v>0.06053831018518518</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="3" t="n">
         <v>69</v>
       </c>
     </row>
@@ -2793,7 +2795,7 @@
       <c r="F18" s="2" t="n">
         <v>0.07094375</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="3" t="n">
         <v>68</v>
       </c>
     </row>
@@ -2824,7 +2826,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,7 +2857,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2886,7 +2888,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2917,7 +2919,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3012,7 +3014,7 @@
       <c r="F2" s="2" t="n">
         <v>0.03371921296296296</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3045,8 +3047,8 @@
       <c r="F3" s="2" t="n">
         <v>0.03398449074074075</v>
       </c>
-      <c r="G3" t="n">
-        <v>99.2</v>
+      <c r="G3" s="3" t="n">
+        <v>99.21899999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3078,8 +3080,8 @@
       <c r="F4" s="2" t="n">
         <v>0.03484085648148148</v>
       </c>
-      <c r="G4" t="n">
-        <v>96.8</v>
+      <c r="G4" s="3" t="n">
+        <v>96.78100000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3111,8 +3113,8 @@
       <c r="F5" s="2" t="n">
         <v>0.03489583333333333</v>
       </c>
-      <c r="G5" t="n">
-        <v>96.59999999999999</v>
+      <c r="G5" s="3" t="n">
+        <v>96.628</v>
       </c>
     </row>
     <row r="6">
@@ -3144,8 +3146,8 @@
       <c r="F6" s="2" t="n">
         <v>0.03493472222222222</v>
       </c>
-      <c r="G6" t="n">
-        <v>96.5</v>
+      <c r="G6" s="3" t="n">
+        <v>96.521</v>
       </c>
     </row>
     <row r="7">
@@ -3177,8 +3179,8 @@
       <c r="F7" s="2" t="n">
         <v>0.0349869212962963</v>
       </c>
-      <c r="G7" t="n">
-        <v>96.40000000000001</v>
+      <c r="G7" s="3" t="n">
+        <v>96.377</v>
       </c>
     </row>
     <row r="8">
@@ -3210,8 +3212,8 @@
       <c r="F8" s="2" t="n">
         <v>0.03505219907407408</v>
       </c>
-      <c r="G8" t="n">
-        <v>96.2</v>
+      <c r="G8" s="3" t="n">
+        <v>96.197</v>
       </c>
     </row>
     <row r="9">
@@ -3243,8 +3245,8 @@
       <c r="F9" s="2" t="n">
         <v>0.03523217592592592</v>
       </c>
-      <c r="G9" t="n">
-        <v>95.7</v>
+      <c r="G9" s="3" t="n">
+        <v>95.706</v>
       </c>
     </row>
     <row r="10">
@@ -3276,8 +3278,8 @@
       <c r="F10" s="2" t="n">
         <v>0.03542083333333333</v>
       </c>
-      <c r="G10" t="n">
-        <v>95.2</v>
+      <c r="G10" s="3" t="n">
+        <v>95.196</v>
       </c>
     </row>
     <row r="11">
@@ -3309,8 +3311,8 @@
       <c r="F11" s="2" t="n">
         <v>0.03551574074074074</v>
       </c>
-      <c r="G11" t="n">
-        <v>94.90000000000001</v>
+      <c r="G11" s="3" t="n">
+        <v>94.94199999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3342,8 +3344,8 @@
       <c r="F12" s="2" t="n">
         <v>0.03568564814814815</v>
       </c>
-      <c r="G12" t="n">
-        <v>94.5</v>
+      <c r="G12" s="3" t="n">
+        <v>94.48999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3375,8 +3377,8 @@
       <c r="F13" s="2" t="n">
         <v>0.03611516203703704</v>
       </c>
-      <c r="G13" t="n">
-        <v>93.40000000000001</v>
+      <c r="G13" s="3" t="n">
+        <v>93.366</v>
       </c>
     </row>
     <row r="14">
@@ -3408,8 +3410,8 @@
       <c r="F14" s="2" t="n">
         <v>0.03642048611111111</v>
       </c>
-      <c r="G14" t="n">
-        <v>92.59999999999999</v>
+      <c r="G14" s="3" t="n">
+        <v>92.583</v>
       </c>
     </row>
     <row r="15">
@@ -3441,8 +3443,8 @@
       <c r="F15" s="2" t="n">
         <v>0.03644143518518519</v>
       </c>
-      <c r="G15" t="n">
-        <v>92.5</v>
+      <c r="G15" s="3" t="n">
+        <v>92.53</v>
       </c>
     </row>
     <row r="16">
@@ -3474,8 +3476,8 @@
       <c r="F16" s="2" t="n">
         <v>0.03670393518518518</v>
       </c>
-      <c r="G16" t="n">
-        <v>91.90000000000001</v>
+      <c r="G16" s="3" t="n">
+        <v>91.86799999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3507,8 +3509,8 @@
       <c r="F17" s="2" t="n">
         <v>0.03680023148148148</v>
       </c>
-      <c r="G17" t="n">
-        <v>91.59999999999999</v>
+      <c r="G17" s="3" t="n">
+        <v>91.628</v>
       </c>
     </row>
     <row r="18">
@@ -3540,8 +3542,8 @@
       <c r="F18" s="2" t="n">
         <v>0.03691597222222223</v>
       </c>
-      <c r="G18" t="n">
-        <v>91.3</v>
+      <c r="G18" s="3" t="n">
+        <v>91.34</v>
       </c>
     </row>
     <row r="19">
@@ -3573,8 +3575,8 @@
       <c r="F19" s="2" t="n">
         <v>0.03693923611111111</v>
       </c>
-      <c r="G19" t="n">
-        <v>91.3</v>
+      <c r="G19" s="3" t="n">
+        <v>91.283</v>
       </c>
     </row>
     <row r="20">
@@ -3606,8 +3608,8 @@
       <c r="F20" s="2" t="n">
         <v>0.03700277777777778</v>
       </c>
-      <c r="G20" t="n">
-        <v>91.09999999999999</v>
+      <c r="G20" s="3" t="n">
+        <v>91.126</v>
       </c>
     </row>
     <row r="21">
@@ -3639,8 +3641,8 @@
       <c r="F21" s="2" t="n">
         <v>0.03711770833333333</v>
       </c>
-      <c r="G21" t="n">
-        <v>90.8</v>
+      <c r="G21" s="3" t="n">
+        <v>90.84399999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3672,8 +3674,8 @@
       <c r="F22" s="2" t="n">
         <v>0.03713796296296296</v>
       </c>
-      <c r="G22" t="n">
-        <v>90.8</v>
+      <c r="G22" s="3" t="n">
+        <v>90.794</v>
       </c>
     </row>
     <row r="23">
@@ -3705,8 +3707,8 @@
       <c r="F23" s="2" t="n">
         <v>0.03744305555555556</v>
       </c>
-      <c r="G23" t="n">
-        <v>90.09999999999999</v>
+      <c r="G23" s="3" t="n">
+        <v>90.05500000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3738,8 +3740,8 @@
       <c r="F24" s="2" t="n">
         <v>0.03781203703703704</v>
       </c>
-      <c r="G24" t="n">
-        <v>89.2</v>
+      <c r="G24" s="3" t="n">
+        <v>89.176</v>
       </c>
     </row>
     <row r="25">
@@ -3771,8 +3773,8 @@
       <c r="F25" s="2" t="n">
         <v>0.03803240740740741</v>
       </c>
-      <c r="G25" t="n">
-        <v>88.7</v>
+      <c r="G25" s="3" t="n">
+        <v>88.65900000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3804,8 +3806,8 @@
       <c r="F26" s="2" t="n">
         <v>0.03805034722222222</v>
       </c>
-      <c r="G26" t="n">
-        <v>88.59999999999999</v>
+      <c r="G26" s="3" t="n">
+        <v>88.617</v>
       </c>
     </row>
     <row r="27">
@@ -3837,8 +3839,8 @@
       <c r="F27" s="2" t="n">
         <v>0.03834444444444444</v>
       </c>
-      <c r="G27" t="n">
-        <v>87.90000000000001</v>
+      <c r="G27" s="3" t="n">
+        <v>87.938</v>
       </c>
     </row>
     <row r="28">
@@ -3870,8 +3872,8 @@
       <c r="F28" s="2" t="n">
         <v>0.03835960648148148</v>
       </c>
-      <c r="G28" t="n">
-        <v>87.90000000000001</v>
+      <c r="G28" s="3" t="n">
+        <v>87.90300000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3903,8 +3905,8 @@
       <c r="F29" s="2" t="n">
         <v>0.03844189814814815</v>
       </c>
-      <c r="G29" t="n">
-        <v>87.7</v>
+      <c r="G29" s="3" t="n">
+        <v>87.715</v>
       </c>
     </row>
     <row r="30">
@@ -3936,8 +3938,8 @@
       <c r="F30" s="2" t="n">
         <v>0.03848472222222222</v>
       </c>
-      <c r="G30" t="n">
-        <v>87.59999999999999</v>
+      <c r="G30" s="3" t="n">
+        <v>87.617</v>
       </c>
     </row>
     <row r="31">
@@ -3969,8 +3971,8 @@
       <c r="F31" s="2" t="n">
         <v>0.03855115740740741</v>
       </c>
-      <c r="G31" t="n">
-        <v>87.5</v>
+      <c r="G31" s="3" t="n">
+        <v>87.46599999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4002,8 +4004,8 @@
       <c r="F32" s="2" t="n">
         <v>0.03866064814814815</v>
       </c>
-      <c r="G32" t="n">
-        <v>87.2</v>
+      <c r="G32" s="3" t="n">
+        <v>87.218</v>
       </c>
     </row>
     <row r="33">
@@ -4035,8 +4037,8 @@
       <c r="F33" s="2" t="n">
         <v>0.03868576388888888</v>
       </c>
-      <c r="G33" t="n">
-        <v>87.2</v>
+      <c r="G33" s="3" t="n">
+        <v>87.16200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4068,8 +4070,8 @@
       <c r="F34" s="2" t="n">
         <v>0.03871770833333334</v>
       </c>
-      <c r="G34" t="n">
-        <v>87.09999999999999</v>
+      <c r="G34" s="3" t="n">
+        <v>87.09</v>
       </c>
     </row>
     <row r="35">
@@ -4101,8 +4103,8 @@
       <c r="F35" s="2" t="n">
         <v>0.03888391203703704</v>
       </c>
-      <c r="G35" t="n">
-        <v>86.7</v>
+      <c r="G35" s="3" t="n">
+        <v>86.718</v>
       </c>
     </row>
     <row r="36">
@@ -4134,8 +4136,8 @@
       <c r="F36" s="2" t="n">
         <v>0.03904236111111111</v>
       </c>
-      <c r="G36" t="n">
-        <v>86.40000000000001</v>
+      <c r="G36" s="3" t="n">
+        <v>86.366</v>
       </c>
     </row>
     <row r="37">
@@ -4167,8 +4169,8 @@
       <c r="F37" s="2" t="n">
         <v>0.039065625</v>
       </c>
-      <c r="G37" t="n">
-        <v>86.3</v>
+      <c r="G37" s="3" t="n">
+        <v>86.31399999999999</v>
       </c>
     </row>
     <row r="38">
@@ -4200,8 +4202,8 @@
       <c r="F38" s="2" t="n">
         <v>0.03911122685185185</v>
       </c>
-      <c r="G38" t="n">
-        <v>86.2</v>
+      <c r="G38" s="3" t="n">
+        <v>86.214</v>
       </c>
     </row>
     <row r="39">
@@ -4233,8 +4235,8 @@
       <c r="F39" s="2" t="n">
         <v>0.03916956018518519</v>
       </c>
-      <c r="G39" t="n">
-        <v>86.09999999999999</v>
+      <c r="G39" s="3" t="n">
+        <v>86.08499999999999</v>
       </c>
     </row>
     <row r="40">
@@ -4266,8 +4268,8 @@
       <c r="F40" s="2" t="n">
         <v>0.03926574074074074</v>
       </c>
-      <c r="G40" t="n">
-        <v>85.90000000000001</v>
+      <c r="G40" s="3" t="n">
+        <v>85.874</v>
       </c>
     </row>
     <row r="41">
@@ -4299,8 +4301,8 @@
       <c r="F41" s="2" t="n">
         <v>0.03927592592592593</v>
       </c>
-      <c r="G41" t="n">
-        <v>85.90000000000001</v>
+      <c r="G41" s="3" t="n">
+        <v>85.852</v>
       </c>
     </row>
     <row r="42">
@@ -4332,8 +4334,8 @@
       <c r="F42" s="2" t="n">
         <v>0.03930694444444444</v>
       </c>
-      <c r="G42" t="n">
-        <v>85.8</v>
+      <c r="G42" s="3" t="n">
+        <v>85.78400000000001</v>
       </c>
     </row>
     <row r="43">
@@ -4365,8 +4367,8 @@
       <c r="F43" s="2" t="n">
         <v>0.03931064814814815</v>
       </c>
-      <c r="G43" t="n">
-        <v>85.8</v>
+      <c r="G43" s="3" t="n">
+        <v>85.776</v>
       </c>
     </row>
     <row r="44">
@@ -4398,8 +4400,8 @@
       <c r="F44" s="2" t="n">
         <v>0.03931446759259259</v>
       </c>
-      <c r="G44" t="n">
-        <v>85.8</v>
+      <c r="G44" s="3" t="n">
+        <v>85.768</v>
       </c>
     </row>
     <row r="45">
@@ -4431,8 +4433,8 @@
       <c r="F45" s="2" t="n">
         <v>0.03945844907407407</v>
       </c>
-      <c r="G45" t="n">
-        <v>85.5</v>
+      <c r="G45" s="3" t="n">
+        <v>85.455</v>
       </c>
     </row>
     <row r="46">
@@ -4464,8 +4466,8 @@
       <c r="F46" s="2" t="n">
         <v>0.03957824074074074</v>
       </c>
-      <c r="G46" t="n">
-        <v>85.2</v>
+      <c r="G46" s="3" t="n">
+        <v>85.196</v>
       </c>
     </row>
     <row r="47">
@@ -4497,8 +4499,8 @@
       <c r="F47" s="2" t="n">
         <v>0.03963148148148148</v>
       </c>
-      <c r="G47" t="n">
-        <v>85.09999999999999</v>
+      <c r="G47" s="3" t="n">
+        <v>85.08199999999999</v>
       </c>
     </row>
     <row r="48">
@@ -4530,8 +4532,8 @@
       <c r="F48" s="2" t="n">
         <v>0.03966724537037037</v>
       </c>
-      <c r="G48" t="n">
-        <v>85</v>
+      <c r="G48" s="3" t="n">
+        <v>85.005</v>
       </c>
     </row>
     <row r="49">
@@ -4563,8 +4565,8 @@
       <c r="F49" s="2" t="n">
         <v>0.03981585648148148</v>
       </c>
-      <c r="G49" t="n">
-        <v>84.7</v>
+      <c r="G49" s="3" t="n">
+        <v>84.688</v>
       </c>
     </row>
     <row r="50">
@@ -4596,8 +4598,8 @@
       <c r="F50" s="2" t="n">
         <v>0.04020162037037037</v>
       </c>
-      <c r="G50" t="n">
-        <v>83.90000000000001</v>
+      <c r="G50" s="3" t="n">
+        <v>83.875</v>
       </c>
     </row>
     <row r="51">
@@ -4629,8 +4631,8 @@
       <c r="F51" s="2" t="n">
         <v>0.04039918981481481</v>
       </c>
-      <c r="G51" t="n">
-        <v>83.5</v>
+      <c r="G51" s="3" t="n">
+        <v>83.465</v>
       </c>
     </row>
     <row r="52">
@@ -4662,8 +4664,8 @@
       <c r="F52" s="2" t="n">
         <v>0.04056898148148148</v>
       </c>
-      <c r="G52" t="n">
-        <v>83.09999999999999</v>
+      <c r="G52" s="3" t="n">
+        <v>83.116</v>
       </c>
     </row>
     <row r="53">
@@ -4695,8 +4697,8 @@
       <c r="F53" s="2" t="n">
         <v>0.04063553240740741</v>
       </c>
-      <c r="G53" t="n">
-        <v>83</v>
+      <c r="G53" s="3" t="n">
+        <v>82.98</v>
       </c>
     </row>
     <row r="54">
@@ -4728,8 +4730,8 @@
       <c r="F54" s="2" t="n">
         <v>0.04068865740740741</v>
       </c>
-      <c r="G54" t="n">
-        <v>82.90000000000001</v>
+      <c r="G54" s="3" t="n">
+        <v>82.871</v>
       </c>
     </row>
     <row r="55">
@@ -4761,8 +4763,8 @@
       <c r="F55" s="2" t="n">
         <v>0.04071678240740741</v>
       </c>
-      <c r="G55" t="n">
-        <v>82.8</v>
+      <c r="G55" s="3" t="n">
+        <v>82.81399999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4794,8 +4796,8 @@
       <c r="F56" s="2" t="n">
         <v>0.04087280092592593</v>
       </c>
-      <c r="G56" t="n">
-        <v>82.5</v>
+      <c r="G56" s="3" t="n">
+        <v>82.498</v>
       </c>
     </row>
     <row r="57">
@@ -4827,8 +4829,8 @@
       <c r="F57" s="2" t="n">
         <v>0.04107615740740741</v>
       </c>
-      <c r="G57" t="n">
-        <v>82.09999999999999</v>
+      <c r="G57" s="3" t="n">
+        <v>82.09</v>
       </c>
     </row>
     <row r="58">
@@ -4860,8 +4862,8 @@
       <c r="F58" s="2" t="n">
         <v>0.04114293981481482</v>
       </c>
-      <c r="G58" t="n">
-        <v>82</v>
+      <c r="G58" s="3" t="n">
+        <v>81.956</v>
       </c>
     </row>
     <row r="59">
@@ -4893,8 +4895,8 @@
       <c r="F59" s="2" t="n">
         <v>0.04131840277777778</v>
       </c>
-      <c r="G59" t="n">
-        <v>81.59999999999999</v>
+      <c r="G59" s="3" t="n">
+        <v>81.608</v>
       </c>
     </row>
     <row r="60">
@@ -4926,8 +4928,8 @@
       <c r="F60" s="2" t="n">
         <v>0.04159108796296296</v>
       </c>
-      <c r="G60" t="n">
-        <v>81.09999999999999</v>
+      <c r="G60" s="3" t="n">
+        <v>81.07299999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4959,8 +4961,8 @@
       <c r="F61" s="2" t="n">
         <v>0.04178784722222222</v>
       </c>
-      <c r="G61" t="n">
-        <v>80.7</v>
+      <c r="G61" s="3" t="n">
+        <v>80.691</v>
       </c>
     </row>
     <row r="62">
@@ -4992,8 +4994,8 @@
       <c r="F62" s="2" t="n">
         <v>0.0420474537037037</v>
       </c>
-      <c r="G62" t="n">
-        <v>80.2</v>
+      <c r="G62" s="3" t="n">
+        <v>80.193</v>
       </c>
     </row>
     <row r="63">
@@ -5025,8 +5027,8 @@
       <c r="F63" s="2" t="n">
         <v>0.04221909722222222</v>
       </c>
-      <c r="G63" t="n">
-        <v>79.90000000000001</v>
+      <c r="G63" s="3" t="n">
+        <v>79.867</v>
       </c>
     </row>
     <row r="64">
@@ -5058,8 +5060,8 @@
       <c r="F64" s="2" t="n">
         <v>0.04237523148148148</v>
       </c>
-      <c r="G64" t="n">
-        <v>79.59999999999999</v>
+      <c r="G64" s="3" t="n">
+        <v>79.57299999999999</v>
       </c>
     </row>
     <row r="65">
@@ -5091,8 +5093,8 @@
       <c r="F65" s="2" t="n">
         <v>0.04238101851851852</v>
       </c>
-      <c r="G65" t="n">
-        <v>79.59999999999999</v>
+      <c r="G65" s="3" t="n">
+        <v>79.562</v>
       </c>
     </row>
     <row r="66">
@@ -5124,8 +5126,8 @@
       <c r="F66" s="2" t="n">
         <v>0.04249583333333333</v>
       </c>
-      <c r="G66" t="n">
-        <v>79.3</v>
+      <c r="G66" s="3" t="n">
+        <v>79.34699999999999</v>
       </c>
     </row>
     <row r="67">
@@ -5157,8 +5159,8 @@
       <c r="F67" s="2" t="n">
         <v>0.04257152777777778</v>
       </c>
-      <c r="G67" t="n">
-        <v>79.2</v>
+      <c r="G67" s="3" t="n">
+        <v>79.206</v>
       </c>
     </row>
     <row r="68">
@@ -5190,8 +5192,8 @@
       <c r="F68" s="2" t="n">
         <v>0.04297106481481482</v>
       </c>
-      <c r="G68" t="n">
-        <v>78.5</v>
+      <c r="G68" s="3" t="n">
+        <v>78.47</v>
       </c>
     </row>
     <row r="69">
@@ -5223,8 +5225,8 @@
       <c r="F69" s="2" t="n">
         <v>0.04301759259259259</v>
       </c>
-      <c r="G69" t="n">
-        <v>78.40000000000001</v>
+      <c r="G69" s="3" t="n">
+        <v>78.38500000000001</v>
       </c>
     </row>
     <row r="70">
@@ -5256,8 +5258,8 @@
       <c r="F70" s="2" t="n">
         <v>0.04333865740740741</v>
       </c>
-      <c r="G70" t="n">
-        <v>77.8</v>
+      <c r="G70" s="3" t="n">
+        <v>77.804</v>
       </c>
     </row>
     <row r="71">
@@ -5289,8 +5291,8 @@
       <c r="F71" s="2" t="n">
         <v>0.04354907407407407</v>
       </c>
-      <c r="G71" t="n">
-        <v>77.40000000000001</v>
+      <c r="G71" s="3" t="n">
+        <v>77.428</v>
       </c>
     </row>
     <row r="72">
@@ -5322,8 +5324,8 @@
       <c r="F72" s="2" t="n">
         <v>0.04361944444444444</v>
       </c>
-      <c r="G72" t="n">
-        <v>77.3</v>
+      <c r="G72" s="3" t="n">
+        <v>77.303</v>
       </c>
     </row>
     <row r="73">
@@ -5355,8 +5357,8 @@
       <c r="F73" s="2" t="n">
         <v>0.04365393518518518</v>
       </c>
-      <c r="G73" t="n">
-        <v>77.2</v>
+      <c r="G73" s="3" t="n">
+        <v>77.242</v>
       </c>
     </row>
     <row r="74">
@@ -5388,8 +5390,8 @@
       <c r="F74" s="2" t="n">
         <v>0.04369363425925926</v>
       </c>
-      <c r="G74" t="n">
-        <v>77.2</v>
+      <c r="G74" s="3" t="n">
+        <v>77.172</v>
       </c>
     </row>
     <row r="75">
@@ -5421,8 +5423,8 @@
       <c r="F75" s="2" t="n">
         <v>0.04426712962962963</v>
       </c>
-      <c r="G75" t="n">
-        <v>76.2</v>
+      <c r="G75" s="3" t="n">
+        <v>76.172</v>
       </c>
     </row>
     <row r="76">
@@ -5454,8 +5456,8 @@
       <c r="F76" s="2" t="n">
         <v>0.04428310185185185</v>
       </c>
-      <c r="G76" t="n">
-        <v>76.09999999999999</v>
+      <c r="G76" s="3" t="n">
+        <v>76.145</v>
       </c>
     </row>
     <row r="77">
@@ -5487,8 +5489,8 @@
       <c r="F77" s="2" t="n">
         <v>0.04476759259259259</v>
       </c>
-      <c r="G77" t="n">
-        <v>75.3</v>
+      <c r="G77" s="3" t="n">
+        <v>75.321</v>
       </c>
     </row>
     <row r="78">
@@ -5520,8 +5522,8 @@
       <c r="F78" s="2" t="n">
         <v>0.04479375</v>
       </c>
-      <c r="G78" t="n">
-        <v>75.3</v>
+      <c r="G78" s="3" t="n">
+        <v>75.277</v>
       </c>
     </row>
     <row r="79">
@@ -5553,8 +5555,8 @@
       <c r="F79" s="2" t="n">
         <v>0.04552013888888889</v>
       </c>
-      <c r="G79" t="n">
-        <v>74.09999999999999</v>
+      <c r="G79" s="3" t="n">
+        <v>74.075</v>
       </c>
     </row>
     <row r="80">
@@ -5586,8 +5588,8 @@
       <c r="F80" s="2" t="n">
         <v>0.0456037037037037</v>
       </c>
-      <c r="G80" t="n">
-        <v>73.90000000000001</v>
+      <c r="G80" s="3" t="n">
+        <v>73.94</v>
       </c>
     </row>
     <row r="81">
@@ -5619,8 +5621,8 @@
       <c r="F81" s="2" t="n">
         <v>0.04569340277777777</v>
       </c>
-      <c r="G81" t="n">
-        <v>73.8</v>
+      <c r="G81" s="3" t="n">
+        <v>73.794</v>
       </c>
     </row>
     <row r="82">
@@ -5652,8 +5654,8 @@
       <c r="F82" s="2" t="n">
         <v>0.04579189814814815</v>
       </c>
-      <c r="G82" t="n">
-        <v>73.59999999999999</v>
+      <c r="G82" s="3" t="n">
+        <v>73.636</v>
       </c>
     </row>
     <row r="83">
@@ -5685,8 +5687,8 @@
       <c r="F83" s="2" t="n">
         <v>0.04600902777777777</v>
       </c>
-      <c r="G83" t="n">
-        <v>73.3</v>
+      <c r="G83" s="3" t="n">
+        <v>73.288</v>
       </c>
     </row>
     <row r="84">
@@ -5718,8 +5720,8 @@
       <c r="F84" s="2" t="n">
         <v>0.04609826388888889</v>
       </c>
-      <c r="G84" t="n">
-        <v>73.09999999999999</v>
+      <c r="G84" s="3" t="n">
+        <v>73.146</v>
       </c>
     </row>
     <row r="85">
@@ -5751,8 +5753,8 @@
       <c r="F85" s="2" t="n">
         <v>0.04657789351851852</v>
       </c>
-      <c r="G85" t="n">
-        <v>72.40000000000001</v>
+      <c r="G85" s="3" t="n">
+        <v>72.393</v>
       </c>
     </row>
     <row r="86">
@@ -5780,8 +5782,8 @@
       <c r="F86" s="2" t="n">
         <v>0.0469287037037037</v>
       </c>
-      <c r="G86" t="n">
-        <v>71.90000000000001</v>
+      <c r="G86" s="3" t="n">
+        <v>71.852</v>
       </c>
     </row>
     <row r="87">
@@ -5813,8 +5815,8 @@
       <c r="F87" s="2" t="n">
         <v>0.04698368055555555</v>
       </c>
-      <c r="G87" t="n">
-        <v>71.8</v>
+      <c r="G87" s="3" t="n">
+        <v>71.768</v>
       </c>
     </row>
     <row r="88">
@@ -5846,8 +5848,8 @@
       <c r="F88" s="2" t="n">
         <v>0.04702465277777777</v>
       </c>
-      <c r="G88" t="n">
-        <v>71.7</v>
+      <c r="G88" s="3" t="n">
+        <v>71.705</v>
       </c>
     </row>
     <row r="89">
@@ -5879,8 +5881,8 @@
       <c r="F89" s="2" t="n">
         <v>0.04709652777777778</v>
       </c>
-      <c r="G89" t="n">
-        <v>71.59999999999999</v>
+      <c r="G89" s="3" t="n">
+        <v>71.596</v>
       </c>
     </row>
     <row r="90">
@@ -5912,8 +5914,8 @@
       <c r="F90" s="2" t="n">
         <v>0.04725567129629629</v>
       </c>
-      <c r="G90" t="n">
-        <v>71.40000000000001</v>
+      <c r="G90" s="3" t="n">
+        <v>71.355</v>
       </c>
     </row>
     <row r="91">
@@ -5945,8 +5947,8 @@
       <c r="F91" s="2" t="n">
         <v>0.04733668981481481</v>
       </c>
-      <c r="G91" t="n">
-        <v>71.2</v>
+      <c r="G91" s="3" t="n">
+        <v>71.233</v>
       </c>
     </row>
     <row r="92">
@@ -5978,8 +5980,8 @@
       <c r="F92" s="2" t="n">
         <v>0.04742627314814815</v>
       </c>
-      <c r="G92" t="n">
-        <v>71.09999999999999</v>
+      <c r="G92" s="3" t="n">
+        <v>71.098</v>
       </c>
     </row>
     <row r="93">
@@ -6011,8 +6013,8 @@
       <c r="F93" s="2" t="n">
         <v>0.04744594907407407</v>
       </c>
-      <c r="G93" t="n">
-        <v>71.09999999999999</v>
+      <c r="G93" s="3" t="n">
+        <v>71.069</v>
       </c>
     </row>
     <row r="94">
@@ -6044,8 +6046,8 @@
       <c r="F94" s="2" t="n">
         <v>0.04761076388888889</v>
       </c>
-      <c r="G94" t="n">
-        <v>70.8</v>
+      <c r="G94" s="3" t="n">
+        <v>70.82299999999999</v>
       </c>
     </row>
     <row r="95">
@@ -6077,8 +6079,8 @@
       <c r="F95" s="2" t="n">
         <v>0.04770995370370371</v>
       </c>
-      <c r="G95" t="n">
-        <v>70.7</v>
+      <c r="G95" s="3" t="n">
+        <v>70.675</v>
       </c>
     </row>
     <row r="96">
@@ -6110,8 +6112,8 @@
       <c r="F96" s="2" t="n">
         <v>0.04811226851851851</v>
       </c>
-      <c r="G96" t="n">
-        <v>70.09999999999999</v>
+      <c r="G96" s="3" t="n">
+        <v>70.084</v>
       </c>
     </row>
     <row r="97">
@@ -6143,8 +6145,8 @@
       <c r="F97" s="2" t="n">
         <v>0.04813726851851852</v>
       </c>
-      <c r="G97" t="n">
-        <v>70</v>
+      <c r="G97" s="3" t="n">
+        <v>70.048</v>
       </c>
     </row>
     <row r="98">
@@ -6176,8 +6178,8 @@
       <c r="F98" s="2" t="n">
         <v>0.04820671296296297</v>
       </c>
-      <c r="G98" t="n">
-        <v>69.90000000000001</v>
+      <c r="G98" s="3" t="n">
+        <v>69.947</v>
       </c>
     </row>
     <row r="99">
@@ -6209,8 +6211,8 @@
       <c r="F99" s="2" t="n">
         <v>0.04820833333333333</v>
       </c>
-      <c r="G99" t="n">
-        <v>69.90000000000001</v>
+      <c r="G99" s="3" t="n">
+        <v>69.94499999999999</v>
       </c>
     </row>
     <row r="100">
@@ -6242,8 +6244,8 @@
       <c r="F100" s="2" t="n">
         <v>0.04831655092592593</v>
       </c>
-      <c r="G100" t="n">
-        <v>69.8</v>
+      <c r="G100" s="3" t="n">
+        <v>69.788</v>
       </c>
     </row>
     <row r="101">
@@ -6275,8 +6277,8 @@
       <c r="F101" s="2" t="n">
         <v>0.04833391203703704</v>
       </c>
-      <c r="G101" t="n">
-        <v>69.8</v>
+      <c r="G101" s="3" t="n">
+        <v>69.76300000000001</v>
       </c>
     </row>
     <row r="102">
@@ -6308,8 +6310,8 @@
       <c r="F102" s="2" t="n">
         <v>0.04872233796296296</v>
       </c>
-      <c r="G102" t="n">
-        <v>69.2</v>
+      <c r="G102" s="3" t="n">
+        <v>69.20699999999999</v>
       </c>
     </row>
     <row r="103">
@@ -6341,8 +6343,8 @@
       <c r="F103" s="2" t="n">
         <v>0.04903807870370371</v>
       </c>
-      <c r="G103" t="n">
-        <v>68.8</v>
+      <c r="G103" s="3" t="n">
+        <v>68.761</v>
       </c>
     </row>
     <row r="104">
@@ -6374,8 +6376,8 @@
       <c r="F104" s="2" t="n">
         <v>0.04916759259259259</v>
       </c>
-      <c r="G104" t="n">
-        <v>68.59999999999999</v>
+      <c r="G104" s="3" t="n">
+        <v>68.58</v>
       </c>
     </row>
     <row r="105">
@@ -6407,8 +6409,8 @@
       <c r="F105" s="2" t="n">
         <v>0.04923159722222222</v>
       </c>
-      <c r="G105" t="n">
-        <v>68.5</v>
+      <c r="G105" s="3" t="n">
+        <v>68.491</v>
       </c>
     </row>
     <row r="106">
@@ -6440,8 +6442,8 @@
       <c r="F106" s="2" t="n">
         <v>0.04999525462962963</v>
       </c>
-      <c r="G106" t="n">
-        <v>67.40000000000001</v>
+      <c r="G106" s="3" t="n">
+        <v>67.44499999999999</v>
       </c>
     </row>
     <row r="107">
@@ -6473,8 +6475,8 @@
       <c r="F107" s="2" t="n">
         <v>0.05093842592592592</v>
       </c>
-      <c r="G107" t="n">
-        <v>66.2</v>
+      <c r="G107" s="3" t="n">
+        <v>66.196</v>
       </c>
     </row>
     <row r="108">
@@ -6506,8 +6508,8 @@
       <c r="F108" s="2" t="n">
         <v>0.05127696759259259</v>
       </c>
-      <c r="G108" t="n">
-        <v>65.8</v>
+      <c r="G108" s="3" t="n">
+        <v>65.759</v>
       </c>
     </row>
     <row r="109">
@@ -6539,8 +6541,8 @@
       <c r="F109" s="2" t="n">
         <v>0.05158113425925925</v>
       </c>
-      <c r="G109" t="n">
-        <v>65.40000000000001</v>
+      <c r="G109" s="3" t="n">
+        <v>65.371</v>
       </c>
     </row>
     <row r="110">
@@ -6572,8 +6574,8 @@
       <c r="F110" s="2" t="n">
         <v>0.05239074074074074</v>
       </c>
-      <c r="G110" t="n">
-        <v>64.40000000000001</v>
+      <c r="G110" s="3" t="n">
+        <v>64.361</v>
       </c>
     </row>
     <row r="111">
@@ -6605,8 +6607,8 @@
       <c r="F111" s="2" t="n">
         <v>0.05274652777777778</v>
       </c>
-      <c r="G111" t="n">
-        <v>63.9</v>
+      <c r="G111" s="3" t="n">
+        <v>63.927</v>
       </c>
     </row>
     <row r="112">
@@ -6638,8 +6640,8 @@
       <c r="F112" s="2" t="n">
         <v>0.05308726851851851</v>
       </c>
-      <c r="G112" t="n">
-        <v>63.5</v>
+      <c r="G112" s="3" t="n">
+        <v>63.517</v>
       </c>
     </row>
     <row r="113">
@@ -6671,8 +6673,8 @@
       <c r="F113" s="2" t="n">
         <v>0.05381956018518519</v>
       </c>
-      <c r="G113" t="n">
-        <v>62.7</v>
+      <c r="G113" s="3" t="n">
+        <v>62.652</v>
       </c>
     </row>
     <row r="114">
@@ -6704,8 +6706,8 @@
       <c r="F114" s="2" t="n">
         <v>0.05398402777777778</v>
       </c>
-      <c r="G114" t="n">
-        <v>62.5</v>
+      <c r="G114" s="3" t="n">
+        <v>62.461</v>
       </c>
     </row>
     <row r="115">
@@ -6737,8 +6739,8 @@
       <c r="F115" s="2" t="n">
         <v>0.054503125</v>
       </c>
-      <c r="G115" t="n">
-        <v>61.9</v>
+      <c r="G115" s="3" t="n">
+        <v>61.867</v>
       </c>
     </row>
     <row r="116">
@@ -6770,8 +6772,8 @@
       <c r="F116" s="2" t="n">
         <v>0.05522800925925925</v>
       </c>
-      <c r="G116" t="n">
-        <v>61.1</v>
+      <c r="G116" s="3" t="n">
+        <v>61.055</v>
       </c>
     </row>
     <row r="117">
@@ -6803,7 +6805,7 @@
       <c r="F117" s="2" t="n">
         <v>0.0586417824074074</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117" s="3" t="n">
         <v>57.5</v>
       </c>
     </row>
@@ -6836,8 +6838,8 @@
       <c r="F118" s="2" t="n">
         <v>0.05945763888888889</v>
       </c>
-      <c r="G118" t="n">
-        <v>56.7</v>
+      <c r="G118" s="3" t="n">
+        <v>56.711</v>
       </c>
     </row>
     <row r="119">
@@ -6869,8 +6871,8 @@
       <c r="F119" s="2" t="n">
         <v>0.06202453703703704</v>
       </c>
-      <c r="G119" t="n">
-        <v>54.4</v>
+      <c r="G119" s="3" t="n">
+        <v>54.364</v>
       </c>
     </row>
     <row r="120">
@@ -6902,8 +6904,8 @@
       <c r="F120" s="2" t="n">
         <v>0.06353761574074074</v>
       </c>
-      <c r="G120" t="n">
-        <v>53.1</v>
+      <c r="G120" s="3" t="n">
+        <v>53.07</v>
       </c>
     </row>
     <row r="121">
@@ -6935,8 +6937,8 @@
       <c r="F121" s="2" t="n">
         <v>0.06401875</v>
       </c>
-      <c r="G121" t="n">
-        <v>52.7</v>
+      <c r="G121" s="3" t="n">
+        <v>52.671</v>
       </c>
     </row>
     <row r="122">
@@ -6968,8 +6970,8 @@
       <c r="F122" s="2" t="n">
         <v>0.06472141203703705</v>
       </c>
-      <c r="G122" t="n">
-        <v>52.1</v>
+      <c r="G122" s="3" t="n">
+        <v>52.099</v>
       </c>
     </row>
     <row r="123">
@@ -7001,8 +7003,8 @@
       <c r="F123" s="2" t="n">
         <v>0.06625543981481481</v>
       </c>
-      <c r="G123" t="n">
-        <v>50.9</v>
+      <c r="G123" s="3" t="n">
+        <v>50.893</v>
       </c>
     </row>
     <row r="124">
@@ -7022,8 +7024,8 @@
       <c r="F124" s="2" t="n">
         <v>0.4347335648148148</v>
       </c>
-      <c r="G124" t="n">
-        <v>7.8</v>
+      <c r="G124" s="3" t="n">
+        <v>7.756</v>
       </c>
     </row>
     <row r="125">
@@ -7053,7 +7055,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G125" t="n">
+      <c r="G125" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7084,7 +7086,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G126" t="n">
+      <c r="G126" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7115,7 +7117,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G127" t="n">
+      <c r="G127" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7146,7 +7148,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G128" t="n">
+      <c r="G128" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7177,7 +7179,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G129" t="n">
+      <c r="G129" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7208,7 +7210,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G130" t="n">
+      <c r="G130" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7239,7 +7241,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G131" t="n">
+      <c r="G131" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7270,7 +7272,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G132" t="n">
+      <c r="G132" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7301,7 +7303,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G133" t="n">
+      <c r="G133" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7332,7 +7334,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G134" t="n">
+      <c r="G134" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7363,7 +7365,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G135" t="n">
+      <c r="G135" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7394,7 +7396,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G136" t="n">
+      <c r="G136" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7425,7 +7427,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G137" t="n">
+      <c r="G137" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7456,7 +7458,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G138" t="n">
+      <c r="G138" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7487,7 +7489,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G139" t="n">
+      <c r="G139" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7518,7 +7520,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G140" t="n">
+      <c r="G140" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7549,7 +7551,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G141" t="n">
+      <c r="G141" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7580,7 +7582,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G142" t="n">
+      <c r="G142" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7611,7 +7613,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G143" t="n">
+      <c r="G143" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7642,7 +7644,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G144" t="n">
+      <c r="G144" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7673,7 +7675,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G145" t="n">
+      <c r="G145" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7704,7 +7706,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G146" t="n">
+      <c r="G146" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7799,7 +7801,7 @@
       <c r="F2" s="2" t="n">
         <v>0.04737430555555555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7832,8 +7834,8 @@
       <c r="F3" s="2" t="n">
         <v>0.04806712962962963</v>
       </c>
-      <c r="G3" t="n">
-        <v>98.59999999999999</v>
+      <c r="G3" s="3" t="n">
+        <v>98.559</v>
       </c>
     </row>
     <row r="4">
@@ -7861,8 +7863,8 @@
       <c r="F4" s="2" t="n">
         <v>0.04978703703703704</v>
       </c>
-      <c r="G4" t="n">
-        <v>95.2</v>
+      <c r="G4" s="3" t="n">
+        <v>95.154</v>
       </c>
     </row>
     <row r="5">
@@ -7894,8 +7896,8 @@
       <c r="F5" s="2" t="n">
         <v>0.05206689814814815</v>
       </c>
-      <c r="G5" t="n">
-        <v>91</v>
+      <c r="G5" s="3" t="n">
+        <v>90.98699999999999</v>
       </c>
     </row>
     <row r="6">
@@ -7927,8 +7929,8 @@
       <c r="F6" s="2" t="n">
         <v>0.05278715277777778</v>
       </c>
-      <c r="G6" t="n">
-        <v>89.7</v>
+      <c r="G6" s="3" t="n">
+        <v>89.746</v>
       </c>
     </row>
     <row r="7">
@@ -7960,8 +7962,8 @@
       <c r="F7" s="2" t="n">
         <v>0.0530619212962963</v>
       </c>
-      <c r="G7" t="n">
-        <v>89.3</v>
+      <c r="G7" s="3" t="n">
+        <v>89.28100000000001</v>
       </c>
     </row>
     <row r="8">
@@ -7993,8 +7995,8 @@
       <c r="F8" s="2" t="n">
         <v>0.05518842592592593</v>
       </c>
-      <c r="G8" t="n">
-        <v>85.8</v>
+      <c r="G8" s="3" t="n">
+        <v>85.84099999999999</v>
       </c>
     </row>
     <row r="9">
@@ -8026,8 +8028,8 @@
       <c r="F9" s="2" t="n">
         <v>0.05572060185185185</v>
       </c>
-      <c r="G9" t="n">
-        <v>85</v>
+      <c r="G9" s="3" t="n">
+        <v>85.021</v>
       </c>
     </row>
     <row r="10">
@@ -8059,8 +8061,8 @@
       <c r="F10" s="2" t="n">
         <v>0.05580740740740741</v>
       </c>
-      <c r="G10" t="n">
-        <v>84.90000000000001</v>
+      <c r="G10" s="3" t="n">
+        <v>84.889</v>
       </c>
     </row>
     <row r="11">
@@ -8092,8 +8094,8 @@
       <c r="F11" s="2" t="n">
         <v>0.05598680555555556</v>
       </c>
-      <c r="G11" t="n">
-        <v>84.59999999999999</v>
+      <c r="G11" s="3" t="n">
+        <v>84.617</v>
       </c>
     </row>
     <row r="12">
@@ -8125,8 +8127,8 @@
       <c r="F12" s="2" t="n">
         <v>0.05785277777777777</v>
       </c>
-      <c r="G12" t="n">
-        <v>81.90000000000001</v>
+      <c r="G12" s="3" t="n">
+        <v>81.88800000000001</v>
       </c>
     </row>
     <row r="13">
@@ -8158,8 +8160,8 @@
       <c r="F13" s="2" t="n">
         <v>0.05881099537037038</v>
       </c>
-      <c r="G13" t="n">
-        <v>80.59999999999999</v>
+      <c r="G13" s="3" t="n">
+        <v>80.553</v>
       </c>
     </row>
     <row r="14">
@@ -8191,8 +8193,8 @@
       <c r="F14" s="2" t="n">
         <v>0.06080081018518518</v>
       </c>
-      <c r="G14" t="n">
-        <v>77.90000000000001</v>
+      <c r="G14" s="3" t="n">
+        <v>77.917</v>
       </c>
     </row>
     <row r="15">
@@ -8224,8 +8226,8 @@
       <c r="F15" s="2" t="n">
         <v>0.06281226851851851</v>
       </c>
-      <c r="G15" t="n">
-        <v>75.40000000000001</v>
+      <c r="G15" s="3" t="n">
+        <v>75.422</v>
       </c>
     </row>
     <row r="16">
@@ -8257,8 +8259,8 @@
       <c r="F16" s="2" t="n">
         <v>0.06367650462962962</v>
       </c>
-      <c r="G16" t="n">
-        <v>74.40000000000001</v>
+      <c r="G16" s="3" t="n">
+        <v>74.398</v>
       </c>
     </row>
     <row r="17">
@@ -8290,8 +8292,8 @@
       <c r="F17" s="2" t="n">
         <v>0.06466875</v>
       </c>
-      <c r="G17" t="n">
-        <v>73.3</v>
+      <c r="G17" s="3" t="n">
+        <v>73.25700000000001</v>
       </c>
     </row>
     <row r="18">
@@ -8323,8 +8325,8 @@
       <c r="F18" s="2" t="n">
         <v>0.06660231481481481</v>
       </c>
-      <c r="G18" t="n">
-        <v>71.09999999999999</v>
+      <c r="G18" s="3" t="n">
+        <v>71.13</v>
       </c>
     </row>
     <row r="19">
@@ -8356,8 +8358,8 @@
       <c r="F19" s="2" t="n">
         <v>0.06814618055555556</v>
       </c>
-      <c r="G19" t="n">
-        <v>69.5</v>
+      <c r="G19" s="3" t="n">
+        <v>69.51900000000001</v>
       </c>
     </row>
     <row r="20">
@@ -8389,8 +8391,8 @@
       <c r="F20" s="2" t="n">
         <v>0.06830636574074074</v>
       </c>
-      <c r="G20" t="n">
-        <v>69.40000000000001</v>
+      <c r="G20" s="3" t="n">
+        <v>69.35599999999999</v>
       </c>
     </row>
     <row r="21">
@@ -8422,8 +8424,8 @@
       <c r="F21" s="2" t="n">
         <v>0.07069317129629631</v>
       </c>
-      <c r="G21" t="n">
-        <v>67</v>
+      <c r="G21" s="3" t="n">
+        <v>67.014</v>
       </c>
     </row>
     <row r="22">
@@ -8455,8 +8457,8 @@
       <c r="F22" s="2" t="n">
         <v>0.0707429398148148</v>
       </c>
-      <c r="G22" t="n">
-        <v>67</v>
+      <c r="G22" s="3" t="n">
+        <v>66.967</v>
       </c>
     </row>
     <row r="23">
@@ -8488,8 +8490,8 @@
       <c r="F23" s="2" t="n">
         <v>0.07152025462962963</v>
       </c>
-      <c r="G23" t="n">
-        <v>66.2</v>
+      <c r="G23" s="3" t="n">
+        <v>66.239</v>
       </c>
     </row>
     <row r="24">
@@ -8521,8 +8523,8 @@
       <c r="F24" s="2" t="n">
         <v>0.07178668981481481</v>
       </c>
-      <c r="G24" t="n">
-        <v>66</v>
+      <c r="G24" s="3" t="n">
+        <v>65.99299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -8554,8 +8556,8 @@
       <c r="F25" s="2" t="n">
         <v>0.07185497685185185</v>
       </c>
-      <c r="G25" t="n">
-        <v>65.90000000000001</v>
+      <c r="G25" s="3" t="n">
+        <v>65.93000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -8583,8 +8585,8 @@
       <c r="F26" s="2" t="n">
         <v>0.07279525462962963</v>
       </c>
-      <c r="G26" t="n">
-        <v>65.09999999999999</v>
+      <c r="G26" s="3" t="n">
+        <v>65.07899999999999</v>
       </c>
     </row>
     <row r="27">
@@ -8616,8 +8618,8 @@
       <c r="F27" s="2" t="n">
         <v>0.07482604166666668</v>
       </c>
-      <c r="G27" t="n">
-        <v>63.3</v>
+      <c r="G27" s="3" t="n">
+        <v>63.313</v>
       </c>
     </row>
     <row r="28">
@@ -8649,8 +8651,8 @@
       <c r="F28" s="2" t="n">
         <v>0.07499108796296296</v>
       </c>
-      <c r="G28" t="n">
-        <v>63.2</v>
+      <c r="G28" s="3" t="n">
+        <v>63.173</v>
       </c>
     </row>
     <row r="29">
@@ -8682,8 +8684,8 @@
       <c r="F29" s="2" t="n">
         <v>0.07640868055555555</v>
       </c>
-      <c r="G29" t="n">
-        <v>62</v>
+      <c r="G29" s="3" t="n">
+        <v>62.001</v>
       </c>
     </row>
     <row r="30">
@@ -8715,8 +8717,8 @@
       <c r="F30" s="2" t="n">
         <v>0.07715509259259259</v>
       </c>
-      <c r="G30" t="n">
-        <v>61.4</v>
+      <c r="G30" s="3" t="n">
+        <v>61.401</v>
       </c>
     </row>
     <row r="31">
@@ -8748,8 +8750,8 @@
       <c r="F31" s="2" t="n">
         <v>0.07848587962962963</v>
       </c>
-      <c r="G31" t="n">
-        <v>60.4</v>
+      <c r="G31" s="3" t="n">
+        <v>60.36</v>
       </c>
     </row>
     <row r="32">
@@ -8781,8 +8783,8 @@
       <c r="F32" s="2" t="n">
         <v>0.081428125</v>
       </c>
-      <c r="G32" t="n">
-        <v>58.2</v>
+      <c r="G32" s="3" t="n">
+        <v>58.179</v>
       </c>
     </row>
     <row r="33">
@@ -8814,8 +8816,8 @@
       <c r="F33" s="2" t="n">
         <v>0.08237407407407407</v>
       </c>
-      <c r="G33" t="n">
-        <v>57.5</v>
+      <c r="G33" s="3" t="n">
+        <v>57.511</v>
       </c>
     </row>
     <row r="34">
@@ -8845,7 +8847,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8876,7 +8878,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8907,7 +8909,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8938,7 +8940,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8969,7 +8971,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9000,7 +9002,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9031,7 +9033,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9062,7 +9064,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9093,7 +9095,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9124,7 +9126,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9155,7 +9157,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9186,7 +9188,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9217,7 +9219,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9248,7 +9250,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9279,7 +9281,7 @@
           <t>Descalificado</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="3" t="n">
         <v>0</v>
       </c>
     </row>
